--- a/千仞雪2/等级.xlsx
+++ b/千仞雪2/等级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16320" windowHeight="12060"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>时间</t>
   </si>
@@ -67,24 +67,25 @@
 穿越者精神力加3000年。</t>
   </si>
   <si>
-    <t>觉醒双生武魂，光明四翼天使极致之光火属性和黑暗四翼天使极致之暗和冰属性。
+    <t>灵通境</t>
+  </si>
+  <si>
+    <t>觉醒双生武魂，光明四翼天使极致之光火属性，自带光明领域，和黑暗四翼天使极致之暗和冰属性，自带黑暗领域。
 服用地龙金瓜，肉身加5000年和90000年潜力。
 服用望穿秋水露，精神力加10000年。
-服用冰火双草，获得极致之火和极致之冰，冰火免疫。
-服用星罗灵珠，预备魂核。</t>
-  </si>
-  <si>
-    <t>黑1</t>
-  </si>
-  <si>
-    <t>光明四翼天使吸收万年魂环，加6级。
-之前的仙草，加4级。</t>
+服用冰火双草，获得极致之火和极致之冰，冰火免疫。</t>
+  </si>
+  <si>
+    <t>黑1黑1</t>
+  </si>
+  <si>
+    <t>光明四翼天使吸收两个万年魂环，加10级。</t>
   </si>
   <si>
     <t>7岁</t>
   </si>
   <si>
-    <t>黑1黑4</t>
+    <t>黑1黑1黑4</t>
   </si>
   <si>
     <t>魂斗罗</t>
@@ -100,7 +101,7 @@
     <t>8岁</t>
   </si>
   <si>
-    <t>黑1黑4黑8</t>
+    <t>黑1黑1黑4黑8</t>
   </si>
   <si>
     <t>封号斗罗</t>
@@ -121,30 +122,153 @@
 千道流上昊天宗，昊天宗割让御之一族和破之一族。</t>
   </si>
   <si>
-    <t>黑1黑4黑8黑9</t>
+    <t>黑1黑1黑4黑8黑8</t>
   </si>
   <si>
     <t>超级斗罗</t>
   </si>
   <si>
-    <t>光明四翼天使吸收九万年魂环，加3级。
+    <t>光明四翼天使吸收八万年魂环，加3级。
 之前的修炼，加2级。</t>
   </si>
   <si>
     <t>11岁</t>
   </si>
   <si>
-    <t>黑1黑4黑8黑9黑9
+    <t>黑1黑1黑4黑8黑8黑8黑8
 黑6</t>
   </si>
   <si>
     <t>极限斗罗</t>
   </si>
   <si>
-    <t>光明四翼天使吸收九万年魂环，加2级。
+    <t>光明四翼天使吸收八万年魂环，加2级。
 黑暗四翼天使吸收暗魔邪神虎，加2级。
 获得暗魔邪神虎魂核。
-获得光明女神和黑暗之神双神考试。</t>
+获得光明女神和黑暗之神双神考试，一考验基础，光明之神一考：承受精神枷锁一年，黑暗之神一考：承受力量枷锁一年。</t>
+  </si>
+  <si>
+    <t>12岁</t>
+  </si>
+  <si>
+    <t>红7黑8黑8黑8黑8黑8黑8红7
+黑6</t>
+  </si>
+  <si>
+    <t>神官</t>
+  </si>
+  <si>
+    <t>灵域境</t>
+  </si>
+  <si>
+    <t>完成一考，奖励光明之神亲和力加10%，黑暗之神亲和力加10%，持续精神与力量枷锁。
+二考验心性，光明二考：拯救100名善者，黑暗二考：惩戒100名恶人。
+光明四翼天使吸收两枚70万年神赐魂环，加10级。
+光明四翼天使更换前三枚魂环为八万年魂环。</t>
+  </si>
+  <si>
+    <t>13岁</t>
+  </si>
+  <si>
+    <t>红7黑8黑8黑8黑8黑8黑8红7黑8
+黑6</t>
+  </si>
+  <si>
+    <t>三级神</t>
+  </si>
+  <si>
+    <t>神元境</t>
+  </si>
+  <si>
+    <t>光明四翼天使吸收八万年魂环，加1级。
+之前修炼，加1级。</t>
+  </si>
+  <si>
+    <t>遇到奥斯卡，邀请加入武魂殿。</t>
+  </si>
+  <si>
+    <t>14岁</t>
+  </si>
+  <si>
+    <t>二级神</t>
+  </si>
+  <si>
+    <t>从猎奴队拯救猫耳少女花灵。</t>
+  </si>
+  <si>
+    <t>15岁</t>
+  </si>
+  <si>
+    <t>完成二考，奖励光明之神亲和力加10%，黑暗之神亲和力加10%。
+三考验战力：挑战光明和黑暗秘境。
+完成三考，奖励光明之神亲和力加10%，黑暗之神亲和力加10%。
+四考验创新：自创光明与黑暗魂技。</t>
+  </si>
+  <si>
+    <t>16岁</t>
+  </si>
+  <si>
+    <t>红7黑8黑8黑8黑8黑8黑8红7黑8
+黑6黑9</t>
+  </si>
+  <si>
+    <t>黑暗四翼天使吸收九万年魂环，加1级。</t>
+  </si>
+  <si>
+    <t>17岁</t>
+  </si>
+  <si>
+    <t>红7黑8黑8黑8黑8黑8黑8红7黑8
+黑6黑9黑9</t>
+  </si>
+  <si>
+    <t>18岁</t>
+  </si>
+  <si>
+    <t>红7黑8黑8黑8黑8黑8黑8红7黑8
+黑6黑9黑9黑9</t>
+  </si>
+  <si>
+    <t>19岁</t>
+  </si>
+  <si>
+    <t>红7黑8黑8黑8黑8黑8黑8红7黑8
+黑6黑9黑9黑9黑9</t>
+  </si>
+  <si>
+    <t>黑暗四翼天使吸收九万年魂环，加1级。
+完成四考，奖励光明之神亲和力加15%，黑暗之神亲和力加15%。
+五考验战力：使用自创魂技挑战秘境。
+完成五考：奖励光明之神亲和力加15%，黑暗之神亲和力加15%。
+六考锻神装</t>
+  </si>
+  <si>
+    <t>20岁</t>
+  </si>
+  <si>
+    <t>前往冰火两仪眼底部，获取冰火龙王魂骨和极冰神晶、极火神晶。
+学习锻造。</t>
+  </si>
+  <si>
+    <t>21岁</t>
+  </si>
+  <si>
+    <t>开始锻造神装和神器</t>
+  </si>
+  <si>
+    <t>22岁</t>
+  </si>
+  <si>
+    <t>完成神装和神器，同时完成六考和七考，奖励光明之神亲和力加30%，黑暗之神亲和力加30%。
+八考：同时使用光明与黑暗领域</t>
+  </si>
+  <si>
+    <t>九考：补完魂环</t>
+  </si>
+  <si>
+    <t>千仞雪觉醒双生武魂，光明四翼天使极致之光火属性和黑暗四翼天使极致之暗和冰属性。
+以武魂殿藏书《上古异志》中天火降世传说为由，前往落日森林寻宝，服用望穿秋水露，地龙金瓜，冰火双草。
+光明四翼天使吸收万年魂环后来到30级。</t>
   </si>
 </sst>
 </file>
@@ -310,18 +434,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -648,7 +766,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,16 +790,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -690,109 +808,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1105,215 +1220,394 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="50" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="50" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:8">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="5">
         <v>10000</v>
       </c>
       <c r="G3" s="5">
         <v>5000</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:8">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="5">
         <v>15000</v>
       </c>
-      <c r="G4" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="28.8" spans="2:8">
-      <c r="B5" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" ht="28.8" spans="2:8">
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
         <v>40</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" ht="28.8" spans="2:8">
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
         <v>50</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" ht="57.6" spans="2:8">
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" ht="28.8" spans="2:8">
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
         <v>65</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" ht="57.6" spans="2:8">
-      <c r="B10" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4">
+    </row>
+    <row r="10" ht="86.4" spans="2:8">
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
         <v>74</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="86.4" spans="2:8">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="2:8">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" ht="86.4" spans="2:8">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="2:8">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>96</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="2:8">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="2:8">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" ht="100.8" spans="2:8">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="2:8">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="2:8">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1326,14 +1620,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="125.888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2" spans="2:2">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/千仞雪2/等级.xlsx
+++ b/千仞雪2/等级.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>时间</t>
   </si>
@@ -161,7 +161,7 @@
     <t>灵域境</t>
   </si>
   <si>
-    <t>完成一考，奖励光明之神亲和力加10%，黑暗之神亲和力加10%，持续精神与力量枷锁。
+    <t>完成一考，奖励亲和力10%，持续精神与力量枷锁。
 二考验心性，光明二考：拯救100名善者，黑暗二考：惩戒100名恶人。
 光明四翼天使吸收两枚70万年神赐魂环，加10级。
 光明四翼天使更换前三枚魂环为八万年魂环。</t>
@@ -190,18 +190,16 @@
     <t>14岁</t>
   </si>
   <si>
-    <t>二级神</t>
-  </si>
-  <si>
-    <t>从猎奴队拯救猫耳少女花灵。</t>
+    <t>从猎奴队拯救猫耳少女花灵。
+获得生灵之金，尝试用精神力融合。</t>
   </si>
   <si>
     <t>15岁</t>
   </si>
   <si>
-    <t>完成二考，奖励光明之神亲和力加10%，黑暗之神亲和力加10%。
+    <t>完成二考，奖励亲和力10%
 三考验战力：挑战光明和黑暗秘境。
-完成三考，奖励光明之神亲和力加10%，黑暗之神亲和力加10%。
+完成三考，奖励亲和力10%
 四考验创新：自创光明与黑暗魂技。</t>
   </si>
   <si>
@@ -212,6 +210,9 @@
 黑6黑9</t>
   </si>
   <si>
+    <t>二级神</t>
+  </si>
+  <si>
     <t>黑暗四翼天使吸收九万年魂环，加1级。</t>
   </si>
   <si>
@@ -233,37 +234,56 @@
   </si>
   <si>
     <t>红7黑8黑8黑8黑8黑8黑8红7黑8
-黑6黑9黑9黑9黑9</t>
+黑9黑9黑9黑9黑9</t>
   </si>
   <si>
     <t>黑暗四翼天使吸收九万年魂环，加1级。
-完成四考，奖励光明之神亲和力加15%，黑暗之神亲和力加15%。
+完成四考，奖励亲和力15%。
+吸收暗魔邪神虎珠子，黑暗天使第一魂环达到9万年。
 五考验战力：使用自创魂技挑战秘境。
-完成五考：奖励光明之神亲和力加15%，黑暗之神亲和力加15%。
-六考锻神装</t>
+完成五考：奖励亲和力15%。
+六考锻神装。
+前往日月大陆，战邪帝，用一点生灵之金交换30万年眼睛外附魂骨。</t>
   </si>
   <si>
     <t>20岁</t>
   </si>
   <si>
-    <t>前往冰火两仪眼底部，获取冰火龙王魂骨和极冰神晶、极火神晶。
-学习锻造。</t>
+    <t>前往冰火两仪眼底部，获取冰火龙王魂骨化为赤阳剑和青霜剑，极冰神晶、极火神晶作为神装炼制材料。
+学习锻造，在生灵之金的帮助下快速达到灵锻</t>
   </si>
   <si>
     <t>21岁</t>
   </si>
   <si>
-    <t>开始锻造神装和神器</t>
+    <t>达到魂锻</t>
   </si>
   <si>
     <t>22岁</t>
   </si>
   <si>
-    <t>完成神装和神器，同时完成六考和七考，奖励光明之神亲和力加30%，黑暗之神亲和力加30%。
-八考：同时使用光明与黑暗领域</t>
-  </si>
-  <si>
-    <t>九考：补完魂环</t>
+    <t>一级神</t>
+  </si>
+  <si>
+    <t>23岁</t>
+  </si>
+  <si>
+    <t>达到天锻后完成神装，同时完成六考和七考锻神器，奖励亲和力30%
+八考：同时使用两个武魂魂技
+完成八考：奖励亲和力20%</t>
+  </si>
+  <si>
+    <t>24岁</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>红8红2红2红2红2红2红2红8红2金
+红2红2红2红2红2红8红8红8红8黑金</t>
+  </si>
+  <si>
+    <t>九考：融合光明与黑暗领域，奖励亲和力20%，4个神赐魂环，魂环年限加12万年，成神。</t>
   </si>
   <si>
     <t>千仞雪觉醒双生武魂，光明四翼天使极致之光火属性和黑暗四翼天使极致之暗和冰属性。
@@ -897,17 +917,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1220,218 +1240,218 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="50" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="50" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="72" spans="2:8">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5">
+      <c r="E3" s="2"/>
+      <c r="F3" s="4">
         <v>10000</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>5000</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="2:8">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5">
+      <c r="E4" s="2"/>
+      <c r="F4" s="4">
         <v>15000</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="2:8">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>40</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="2:8">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>50</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="57.6" spans="2:8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:8">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>65</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" ht="86.4" spans="2:8">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>74</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" ht="86.4" spans="2:8">
+    <row r="11" ht="72" spans="2:8">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -1447,7 +1467,7 @@
       <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1467,7 +1487,7 @@
       <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1475,11 +1495,11 @@
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" ht="28.8" spans="2:8">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1487,49 +1507,49 @@
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="57.6" spans="2:8">
+      <c r="B15" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="15" ht="86.4" spans="2:8">
-      <c r="B15" t="s">
-        <v>48</v>
       </c>
       <c r="C15">
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="2:8">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
       <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1544,12 +1564,12 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1563,11 +1583,17 @@
       <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" ht="100.8" spans="2:8">
+    <row r="19" ht="115.2" spans="2:8">
       <c r="B19" t="s">
         <v>57</v>
       </c>
@@ -1577,7 +1603,13 @@
       <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1585,7 +1617,13 @@
       <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1593,21 +1631,59 @@
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" ht="43.2" spans="2:8">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="2" t="s">
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" ht="57.6" spans="2:8">
+      <c r="B23" t="s">
         <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" ht="43.2" spans="2:8">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1709,7 @@
   <sheetData>
     <row r="1" ht="43.2" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/千仞雪2/等级.xlsx
+++ b/千仞雪2/等级.xlsx
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>达到天锻后完成神装，同时完成六考和七考锻神器，奖励亲和力30%
-八考：同时使用两个武魂魂技
+八考：同时使用两个武魂
 完成八考：奖励亲和力20%</t>
   </si>
   <si>
@@ -910,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,9 +925,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1242,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1666,14 +1663,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="2:8">
+    <row r="24" ht="28.8" spans="2:8">
       <c r="B24" t="s">
         <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F24" t="s">
